--- a/физика/Кипятильник/Лист Microsoft Excel.xlsx
+++ b/физика/Кипятильник/Лист Microsoft Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NCFU\физика\Кипятильник\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E4C230-5DAD-4CFC-9476-5FC241AD3D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A118EE-8360-4E55-A511-4AE955BFF158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>№</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>(кОм)</t>
-  </si>
-  <si>
-    <t>3.0</t>
   </si>
   <si>
     <t>=</t>
@@ -220,21 +217,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -258,8 +249,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -322,8 +318,10 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Cu</a:t>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Графики зависимости сопротивления от температуры для Cu</a:t>
             </a:r>
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
@@ -556,6 +554,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> C</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -618,6 +676,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>R,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Ом</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -739,10 +861,37 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Графики зависимости сопротивления от температуры для </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
               <a:t>NTC</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -975,6 +1124,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> c</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1037,6 +1246,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>R,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Ом</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1158,10 +1431,37 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Графики зависимости сопротивления от температуры для </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
               <a:t>PTC</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1404,6 +1704,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> c</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1466,6 +1826,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>R,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Ом</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1573,13 +1997,27 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  </a:sysClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1587,10 +2025,37 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Графики зависимости сопротивления от температуры для </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="1" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
               <a:t>Si</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1606,13 +2071,27 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:sysClr val="windowText" lastClr="000000">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
-                </a:schemeClr>
+                </a:sysClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1823,6 +2302,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>, c</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1885,6 +2424,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>R,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t>Ом</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2328,6 +2931,70 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>/T,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> 1/K</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2390,6 +3057,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>ln(R)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -5919,7 +6642,7 @@
   <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5931,523 +6654,523 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="13"/>
+      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="3">
         <v>30</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="3">
         <v>347</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="3">
         <v>818</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>0.191</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>27.9</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="3">
         <v>35</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="3">
         <v>355</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="3">
         <v>673</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="3">
         <v>0.21299999999999999</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="3">
         <v>17.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="3">
         <v>40</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>363</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="3">
         <v>565</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="3">
         <v>0.252</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="3">
         <v>13.8</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="3">
         <v>45</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>369</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="3">
         <v>476</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="3">
         <v>0.3</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="3">
         <v>13.8</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="3">
         <v>50</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>375</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="3">
         <v>402</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="3">
         <v>0.36499999999999999</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="3">
         <v>18.100000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="3">
         <v>55</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>380</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="3">
         <v>345</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="3">
         <v>0.50800000000000001</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="3">
         <v>20.3</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="3">
         <v>60</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>385</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="3">
         <v>292</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="3">
         <v>0.73699999999999999</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>9.8000000000000007</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="3">
         <v>65</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="3">
         <v>394</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="3">
         <v>249</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="4">
         <v>1.76</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>8.9</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="3">
         <v>70</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="3">
         <v>403</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="3">
         <v>211</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="4">
         <v>3.72</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>3.2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="3">
         <v>75</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="3">
         <v>408</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="3">
         <v>182</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="4">
         <v>7.2</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>8.6</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="3">
         <v>80</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="3">
         <v>416</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="3">
         <v>155</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="4">
         <v>11.7</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="3">
         <v>7.7</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D34" s="7" t="s">
-        <v>9</v>
+      <c r="D34" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="E34">
         <f>(C3-C13)/(C13*B3-C3*B13)</f>
         <v>4.5157068062827224E-3</v>
       </c>
       <c r="F34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="D38" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="10">
+      <c r="A39" s="8">
         <v>30</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="9">
         <v>303</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="9">
         <f>1/B39</f>
         <v>3.3003300330033004E-3</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="9">
         <f>D3</f>
         <v>818</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="9">
         <f>LN(D39)</f>
         <v>6.7068623366027467</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="10">
+      <c r="A40" s="8">
         <v>35</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="9">
         <v>308</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="9">
         <f t="shared" ref="C40:C49" si="0">1/B40</f>
         <v>3.246753246753247E-3</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="9">
         <f t="shared" ref="D40:D49" si="1">D4</f>
         <v>673</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="9">
         <f t="shared" ref="E40:E49" si="2">LN(D40)</f>
         <v>6.5117453296447279</v>
       </c>
-      <c r="F40" s="7"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="10">
+      <c r="A41" s="8">
         <v>40</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="9">
         <v>313</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="9">
         <f t="shared" si="0"/>
         <v>3.1948881789137379E-3</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="9">
         <f t="shared" si="1"/>
         <v>565</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="9">
         <f t="shared" si="2"/>
         <v>6.3368257311464413</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="10">
+      <c r="A42" s="8">
         <v>45</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="9">
         <v>318</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="9">
         <f t="shared" si="0"/>
         <v>3.1446540880503146E-3</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="9">
         <f t="shared" si="1"/>
         <v>476</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="9">
         <f t="shared" si="2"/>
         <v>6.1654178542314204</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="10">
+      <c r="A43" s="8">
         <v>50</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="9">
         <v>323</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="9">
         <f t="shared" si="0"/>
         <v>3.0959752321981426E-3</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="9">
         <f t="shared" si="1"/>
         <v>402</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="9">
         <f t="shared" si="2"/>
         <v>5.9964520886190211</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="10">
+      <c r="A44" s="8">
         <v>55</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="9">
         <v>328</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="9">
         <f t="shared" si="0"/>
         <v>3.0487804878048782E-3</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="9">
         <f t="shared" si="1"/>
         <v>345</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="9">
         <f t="shared" si="2"/>
         <v>5.8435444170313602</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="10">
+      <c r="A45" s="8">
         <v>60</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="9">
         <v>333</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="9">
         <f t="shared" si="0"/>
         <v>3.003003003003003E-3</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="9">
         <f t="shared" si="1"/>
         <v>292</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="9">
         <f t="shared" si="2"/>
         <v>5.6767538022682817</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="10">
+      <c r="A46" s="8">
         <v>65</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="9">
         <v>338</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="9">
         <f t="shared" si="0"/>
         <v>2.9585798816568047E-3</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="9">
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="9">
         <f t="shared" si="2"/>
         <v>5.5174528964647074</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="10">
+      <c r="A47" s="8">
         <v>70</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="9">
         <v>343</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="9">
         <f t="shared" si="0"/>
         <v>2.9154518950437317E-3</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="9">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="9">
         <f t="shared" si="2"/>
         <v>5.3518581334760666</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="10">
+      <c r="A48" s="8">
         <v>75</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="9">
         <v>348</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="9">
         <f t="shared" si="0"/>
         <v>2.8735632183908046E-3</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="9">
         <f t="shared" si="1"/>
         <v>182</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="9">
         <f t="shared" si="2"/>
         <v>5.2040066870767951</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="10">
+      <c r="A49" s="8">
         <v>80</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="9">
         <v>353</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="9">
         <f t="shared" si="0"/>
         <v>2.8328611898016999E-3</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="9">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="9">
         <f t="shared" si="2"/>
         <v>5.0434251169192468</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F57" s="7" t="s">
-        <v>11</v>
+      <c r="F57" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="G57">
         <f>(E49-E39)/(C49-C39)</f>
         <v>3558.3916316025502</v>
       </c>
       <c r="H57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -6456,7 +7179,7 @@
         <v>-1.3800000000000001E-23</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
@@ -6466,30 +7189,30 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="D64" s="7" t="s">
-        <v>18</v>
+      <c r="D64" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="E64">
         <f>-G57*A62</f>
         <v>4.9105804516115196E-20</v>
       </c>
       <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="12"/>
-      <c r="H64" s="14"/>
+        <v>19</v>
+      </c>
+      <c r="G64" s="10"/>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="13">
+      <c r="E65">
         <f>E64/H63</f>
         <v>0.30691127822571995</v>
       </c>
       <c r="F65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="14"/>
+      <c r="E67" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
